--- a/mainOutput/wilcoxPs_withColors.xlsx
+++ b/mainOutput/wilcoxPs_withColors.xlsx
@@ -543,13 +543,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="8" fillId="4" borderId="0" xfId="8" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="11" fontId="7" fillId="3" borderId="0" xfId="7" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
-    <xf numFmtId="11" fontId="8" fillId="4" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="10"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -895,25 +896,25 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -923,7 +924,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -932,7 +933,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -947,7 +948,7 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -956,7 +957,7 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
@@ -968,93 +969,93 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.5585742747145E-2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2.75445988095738E-6</v>
+        <v>1.19475141995863E-2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2.6794092958404799E-6</v>
       </c>
       <c r="D2">
-        <v>2.2513256404069499E-2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.4799627204167999E-2</v>
+        <v>7.7308895799797902E-3</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1.18028692668044E-2</v>
       </c>
       <c r="F2">
-        <v>0.48131153658294601</v>
+        <v>0.41426600906917699</v>
       </c>
       <c r="G2">
-        <v>1.28876689180508E-2</v>
+        <v>5.6269384272106399E-3</v>
       </c>
       <c r="H2">
-        <v>0.120742782936149</v>
-      </c>
-      <c r="I2" s="2">
-        <v>9.2349596261460706E-2</v>
+        <v>9.1277825686953598E-2</v>
+      </c>
+      <c r="I2" s="6">
+        <v>4.1298685660018299E-2</v>
       </c>
       <c r="J2">
-        <v>2.1763246911335701E-2</v>
-      </c>
-      <c r="K2" s="3">
-        <v>9.5193135548873904E-7</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1.41663856888475E-2</v>
-      </c>
-      <c r="M2" s="2">
-        <v>3.1017743544124701E-3</v>
+        <v>1.7065707677395701E-2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>9.1833360347163905E-7</v>
+      </c>
+      <c r="L2" s="6">
+        <v>5.2411073364228298E-3</v>
+      </c>
+      <c r="M2" s="6">
+        <v>4.2131352147966204E-3</v>
       </c>
       <c r="N2">
-        <v>0.51960228828272803</v>
+        <v>0.46093148675819001</v>
       </c>
       <c r="O2">
-        <v>1.6848439845789601E-2</v>
+        <v>9.0767733115627806E-3</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>1.96435029805001E-7</v>
+      <c r="B3" s="2">
+        <v>1.2835159703745699E-7</v>
       </c>
       <c r="C3" s="1">
-        <v>3.7940781716079798E-7</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2.55691751237441E-7</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.52662952230283699</v>
+        <v>1.5415820029842401E-5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6.5979871634649806E-8</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.70513863000816701</v>
       </c>
       <c r="F3">
-        <v>3.6296274231017799E-2</v>
-      </c>
-      <c r="G3" s="5">
-        <v>7.4669782104471504E-5</v>
+        <v>1.43162960332553E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2.6139408853086401E-5</v>
       </c>
       <c r="H3" s="1">
-        <v>7.2841349131707599E-7</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.78698278813802103</v>
+        <v>3.0593871097444198E-7</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.98974132450367402</v>
       </c>
       <c r="J3" s="1">
-        <v>6.3296054698282805E-7</v>
+        <v>4.9343247965374795E-7</v>
       </c>
       <c r="K3" s="1">
-        <v>5.77254885695691E-8</v>
+        <v>2.7082627582906202E-6</v>
       </c>
       <c r="L3" s="1">
-        <v>2.40094956403142E-7</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.87220083760184897</v>
+        <v>8.3446498352404496E-8</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0.96963243024697998</v>
       </c>
       <c r="N3">
-        <v>7.5429155741174897E-2</v>
-      </c>
-      <c r="O3">
-        <v>1.29890844899728E-4</v>
+        <v>3.0675620961065499E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>5.2116837807391199E-5</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1079,7 +1080,7 @@
       <c r="G4">
         <v>1.16797098140909E-4</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>7.0227850466945296E-2</v>
       </c>
       <c r="I4" s="1">
@@ -1091,7 +1092,7 @@
       <c r="K4" s="1">
         <v>1.71312341468821E-6</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="6">
         <v>1.51703405928533E-2</v>
       </c>
       <c r="M4" s="1">
@@ -1109,46 +1110,46 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>2.5669181777446098E-6</v>
+        <v>4.6830171938681503E-8</v>
       </c>
       <c r="C5" s="1">
-        <v>4.3504995000086199E-8</v>
+        <v>4.3504994999828198E-8</v>
       </c>
       <c r="D5" s="1">
-        <v>1.12566816216892E-6</v>
+        <v>4.3666751768329399E-8</v>
       </c>
       <c r="E5" s="1">
-        <v>5.2078808178741102E-8</v>
-      </c>
-      <c r="F5" s="2">
-        <v>8.2496773998204792E-3</v>
-      </c>
-      <c r="G5">
-        <v>2.1803648186270201E-4</v>
+        <v>4.35049940742461E-8</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.4055640795832E-3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.3504987138186997E-8</v>
       </c>
       <c r="H5" s="1">
-        <v>8.6590382800898506E-5</v>
+        <v>5.76753634722464E-6</v>
       </c>
       <c r="I5" s="1">
-        <v>1.0256733593241E-6</v>
+        <v>4.3504994016961699E-8</v>
       </c>
       <c r="J5" s="1">
-        <v>1.6231858748596898E-5</v>
+        <v>5.4142515957746398E-7</v>
       </c>
       <c r="K5" s="1">
-        <v>4.3504995002408498E-8</v>
+        <v>4.3504995002666698E-8</v>
       </c>
       <c r="L5" s="1">
-        <v>2.3680982193994601E-6</v>
+        <v>7.6499210809402896E-8</v>
       </c>
       <c r="M5" s="1">
-        <v>5.0413565438282998E-8</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1.4110396372397801E-2</v>
-      </c>
-      <c r="O5">
-        <v>6.3480047479378104E-4</v>
+        <v>4.3504993702155399E-8</v>
+      </c>
+      <c r="N5" s="3">
+        <v>4.0782911805272402E-3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>4.3504986950077603E-8</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1156,46 +1157,46 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1.6923227649286999E-6</v>
+        <v>4.3515760821490702E-8</v>
       </c>
       <c r="C6" s="1">
-        <v>6.5996004268094999E-8</v>
+        <v>4.3504994991054803E-8</v>
       </c>
       <c r="D6" s="1">
-        <v>2.19072445191752E-6</v>
+        <v>4.3504984888354701E-8</v>
       </c>
       <c r="E6" s="1">
-        <v>7.2497698975209602E-7</v>
-      </c>
-      <c r="F6">
-        <v>1.2712299162489501E-4</v>
+        <v>4.3504990631504099E-8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4.3504840878653501E-8</v>
       </c>
       <c r="G6" s="1">
-        <v>6.4685035578337998E-6</v>
+        <v>4.3504983444891002E-8</v>
       </c>
       <c r="H6" s="1">
-        <v>2.57024634662488E-5</v>
+        <v>4.3504949753929301E-8</v>
       </c>
       <c r="I6" s="1">
-        <v>8.5306830371907498E-6</v>
+        <v>4.3504987963134301E-8</v>
       </c>
       <c r="J6" s="1">
-        <v>2.41753979514606E-6</v>
+        <v>4.3504994993635302E-8</v>
       </c>
       <c r="K6" s="1">
-        <v>5.7091704583048602E-8</v>
+        <v>4.3504994991313002E-8</v>
       </c>
       <c r="L6" s="1">
-        <v>2.0673719095240402E-6</v>
+        <v>4.3504974147013099E-8</v>
       </c>
       <c r="M6" s="1">
-        <v>4.7822106414964605E-7</v>
-      </c>
-      <c r="N6">
-        <v>1.3411278190020301E-4</v>
+        <v>4.3504990227674801E-8</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4.3504631103418802E-8</v>
       </c>
       <c r="O6" s="1">
-        <v>1.1057759555325301E-5</v>
+        <v>4.3504984373311097E-8</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
